--- a/Algorithm - Execution Time.xlsx
+++ b/Algorithm - Execution Time.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chinh\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chinh\Documents\GitHub\2001-Algorithms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A11CEF-FA3E-42A6-8A4A-09B7F21A93F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7EFBDEA-A572-4B61-A7C5-39FAA1174DF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52DCD77D-B34F-4AAE-8B73-A72D1D2D2573}"/>
   </bookViews>
@@ -272,6 +272,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -282,12 +288,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3382,20 +3382,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
@@ -3667,7 +3667,7 @@
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3683,34 +3683,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -3774,7 +3774,7 @@
       </c>
       <c r="B5" s="2">
         <f>SUM(B16:F16)/5</f>
-        <v>0</v>
+        <v>22119300</v>
       </c>
       <c r="C5" s="2">
         <v>59663</v>
@@ -3889,13 +3889,13 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B13" s="3">
@@ -3957,6 +3957,21 @@
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>9</v>
+      </c>
+      <c r="B16">
+        <v>23411700</v>
+      </c>
+      <c r="C16">
+        <v>23520200</v>
+      </c>
+      <c r="D16">
+        <v>20910900</v>
+      </c>
+      <c r="E16">
+        <v>23711400</v>
+      </c>
+      <c r="F16">
+        <v>19042300</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -4132,7 +4147,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H3" activeCellId="3" sqref="B3 D3 F3 H3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4148,34 +4163,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -4580,34 +4595,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="7" t="s">
+      <c r="A2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
